--- a/doc/学習プログラム仕様/単体テスト_変更仕様_社員個人情報管理.xlsx
+++ b/doc/学習プログラム仕様/単体テスト_変更仕様_社員個人情報管理.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\works\RESTART-Training\Boot-Camp\work\new\doc\完了\学習プログラム仕様\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\works\RESTART-Training\Boot-Camp\work\new\doc\学習プログラム仕様\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA3FB52-66F3-4334-A902-85481877E239}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D837455E-85A6-4443-AC47-2FC401835321}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4785" yWindow="1515" windowWidth="17415" windowHeight="9855" tabRatio="942" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'社員個人情報管理 詳細 (旧住所対応)'!$A$1:$O$11</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'社員個人情報管理 詳細 (旧姓対応)'!$A$1:$O$11</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'社員個人情報管理 詳細 (社員番号重複チェック対応)'!$A$1:$O$11</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'社員個人情報管理 入力 (旧住所対応)'!$A$1:$O$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'社員個人情報管理 入力 (旧住所対応)'!$A$1:$O$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'社員個人情報管理 入力 (旧姓対応)'!$A$1:$O$16</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="42">
   <si>
     <t>№</t>
     <phoneticPr fontId="3"/>
@@ -316,6 +316,67 @@
   </si>
   <si>
     <t>社員個人情報管理[入力]</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>旧住所がDBから取得されていること。</t>
+    <rPh sb="0" eb="3">
+      <t>キュウジュウショ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1. -</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2. -</t>
+  </si>
+  <si>
+    <t>3. -</t>
+  </si>
+  <si>
+    <t>4. -</t>
+  </si>
+  <si>
+    <t>現住所が入力有。旧住所が入力無。</t>
+    <rPh sb="6" eb="7">
+      <t>アリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>現住所・旧住所ともに入力有。</t>
+    <rPh sb="12" eb="13">
+      <t>アリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>現住所が入力無。旧住所が入力有。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>5. -</t>
+  </si>
+  <si>
+    <t>現住所・旧住所ともに入力無。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>現住所と旧住所を一度登録したうえで、現住所・旧住所ともに入力無。</t>
+    <rPh sb="4" eb="7">
+      <t>キュウジュウショ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -6241,7 +6302,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G7" sqref="G7:I8"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
@@ -6444,7 +6505,7 @@
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="N8" sqref="N8"/>
-      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
+      <selection pane="bottomLeft" activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
@@ -7161,12 +7222,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA66F83B-7CF7-4394-97E6-65ADAEA68F38}">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="N8" sqref="N8"/>
-      <selection pane="bottomLeft" activeCell="N37" sqref="N37"/>
+      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
@@ -7303,21 +7364,19 @@
       <c r="O7" s="28"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="B8" s="3">
-        <v>3</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="18"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="24"/>
       <c r="K8" s="25"/>
       <c r="L8" s="25"/>
       <c r="M8" s="25"/>
@@ -7330,12 +7389,14 @@
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
       <c r="F9" s="21"/>
-      <c r="G9" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="18"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="24"/>
       <c r="K9" s="25"/>
       <c r="L9" s="25"/>
       <c r="M9" s="25"/>
@@ -7343,19 +7404,19 @@
       <c r="O9" s="28"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="B10" s="3">
-        <v>4</v>
-      </c>
+      <c r="B10" s="3"/>
       <c r="C10" s="19"/>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
       <c r="F10" s="21"/>
       <c r="G10" s="16"/>
       <c r="H10" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="18"/>
+        <v>34</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="24"/>
       <c r="K10" s="25"/>
       <c r="L10" s="25"/>
       <c r="M10" s="25"/>
@@ -7363,19 +7424,19 @@
       <c r="O10" s="28"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="B11" s="3">
-        <v>5</v>
-      </c>
+      <c r="B11" s="3"/>
       <c r="C11" s="19"/>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
       <c r="F11" s="21"/>
       <c r="G11" s="16"/>
       <c r="H11" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="18"/>
+        <v>35</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="24"/>
       <c r="K11" s="25"/>
       <c r="L11" s="25"/>
       <c r="M11" s="25"/>
@@ -7388,54 +7449,56 @@
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="21"/>
-      <c r="G12" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="28"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="24"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="27"/>
       <c r="O12" s="28"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="B13" s="3">
-        <v>6</v>
-      </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="21"/>
       <c r="G13" s="16"/>
-      <c r="H13" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="28"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="27"/>
       <c r="O13" s="28"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="B14" s="3"/>
+      <c r="B14" s="3">
+        <v>3</v>
+      </c>
       <c r="C14" s="13" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="15"/>
-      <c r="G14" s="22"/>
+      <c r="G14" s="16" t="s">
+        <v>9</v>
+      </c>
       <c r="H14" s="17"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="28"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="27"/>
       <c r="O14" s="28"/>
     </row>
     <row r="15" spans="1:15">
@@ -7444,74 +7507,76 @@
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="21"/>
-      <c r="G15" s="22" t="s">
-        <v>17</v>
+      <c r="G15" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="H15" s="17"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="28"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="27"/>
       <c r="O15" s="28"/>
     </row>
     <row r="16" spans="1:15">
       <c r="B16" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="21"/>
-      <c r="G16" s="22"/>
+      <c r="G16" s="16"/>
       <c r="H16" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="23"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="28"/>
+        <v>20</v>
+      </c>
+      <c r="I16" s="17"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="27"/>
       <c r="O16" s="28"/>
     </row>
     <row r="17" spans="2:15">
-      <c r="B17" s="3"/>
+      <c r="B17" s="3">
+        <v>5</v>
+      </c>
       <c r="C17" s="19"/>
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
       <c r="F17" s="21"/>
-      <c r="G17" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="28"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="17"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="27"/>
       <c r="O17" s="28"/>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
       <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
+      <c r="G18" s="16"/>
       <c r="H18" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="28"/>
+        <v>21</v>
+      </c>
+      <c r="I18" s="17"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="27"/>
       <c r="O18" s="28"/>
     </row>
     <row r="19" spans="2:15">
@@ -7520,10 +7585,12 @@
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
       <c r="F19" s="21"/>
-      <c r="G19" s="22"/>
+      <c r="G19" s="16" t="s">
+        <v>12</v>
+      </c>
       <c r="H19" s="17"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="24"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="18"/>
       <c r="K19" s="26"/>
       <c r="L19" s="26"/>
       <c r="M19" s="26"/>
@@ -7531,13 +7598,17 @@
       <c r="O19" s="28"/>
     </row>
     <row r="20" spans="2:15">
-      <c r="B20" s="3"/>
+      <c r="B20" s="3">
+        <v>7</v>
+      </c>
       <c r="C20" s="22"/>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
       <c r="F20" s="24"/>
       <c r="G20" s="16"/>
-      <c r="H20" s="17"/>
+      <c r="H20" s="17" t="s">
+        <v>10</v>
+      </c>
       <c r="I20" s="17"/>
       <c r="J20" s="18"/>
       <c r="K20" s="26"/>
@@ -7545,6 +7616,132 @@
       <c r="M20" s="26"/>
       <c r="N20" s="28"/>
       <c r="O20" s="28"/>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21" s="3"/>
+      <c r="C21" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22" s="3"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="17"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="B23" s="3">
+        <v>8</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="23"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="B24" s="3"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="17"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="B25" s="3">
+        <v>9</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="23"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="B26" s="3"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="B27" s="3"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
     </row>
   </sheetData>
   <autoFilter ref="B3:O3" xr:uid="{00000000-0009-0000-0000-000012000000}"/>
